--- a/pdf-test/src/main/resources/报价模板-final.xlsx
+++ b/pdf-test/src/main/resources/报价模板-final.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$T$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$S$27</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>常州西洲机电科技有限公司报价单</t>
   </si>
@@ -53,36 +53,6 @@
   <si>
     <t>工序</t>
   </si>
-  <si>
-    <t>激光</t>
-  </si>
-  <si>
-    <t>钻/钳</t>
-  </si>
-  <si>
-    <t>折弯</t>
-  </si>
-  <si>
-    <t>焊接</t>
-  </si>
-  <si>
-    <t>精加工</t>
-  </si>
-  <si>
-    <t>表面处理</t>
-  </si>
-  <si>
-    <t>装配运输</t>
-  </si>
-  <si>
-    <t>RM-JJ-00062186</t>
-  </si>
-  <si>
-    <t>模组固定架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       </t>
-  </si>
 </sst>
 </file>
 
@@ -96,7 +66,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,28 +105,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <u/>
@@ -718,148 +682,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,21 +866,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -947,15 +908,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1282,10 +1234,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1382,65 +1334,33 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
-      <c r="A5" s="13">
-        <v>1</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="16">
-        <v>1</v>
-      </c>
-      <c r="E5" s="17">
-        <v>90</v>
-      </c>
-      <c r="F5" s="18">
-        <v>30</v>
-      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="17">
-        <v>180</v>
-      </c>
-      <c r="I5" s="17">
-        <v>80</v>
-      </c>
-      <c r="J5" s="17">
-        <v>300</v>
-      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
@@ -1450,12 +1370,11 @@
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
-      <c r="T5" s="31"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+    </row>
+    <row r="6" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
       <c r="A6" s="13"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
       <c r="F6" s="18"/>
@@ -1472,9 +1391,8 @@
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
-      <c r="T6" s="32"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+    </row>
+    <row r="7" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
       <c r="A7" s="13"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -1494,12 +1412,11 @@
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
-      <c r="T7" s="31"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+    </row>
+    <row r="8" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
       <c r="A8" s="13"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -1516,12 +1433,11 @@
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
-      <c r="T8" s="32"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+    </row>
+    <row r="9" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
       <c r="A9" s="13"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
@@ -1538,13 +1454,12 @@
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
-      <c r="T9" s="31"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+    </row>
+    <row r="10" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
       <c r="A10" s="13"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="17"/>
       <c r="F10" s="18"/>
       <c r="G10" s="17"/>
@@ -1560,13 +1475,12 @@
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
-      <c r="T10" s="33"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+    </row>
+    <row r="11" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
       <c r="A11" s="13"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
@@ -1582,13 +1496,12 @@
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
-      <c r="T11" s="33"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+    </row>
+    <row r="12" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
       <c r="A12" s="13"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="17"/>
       <c r="F12" s="18"/>
       <c r="G12" s="17"/>
@@ -1604,13 +1517,12 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
-      <c r="T12" s="33"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+    </row>
+    <row r="13" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
       <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
       <c r="G13" s="17"/>
@@ -1626,13 +1538,12 @@
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
-      <c r="T13" s="33"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+    </row>
+    <row r="14" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
       <c r="A14" s="13"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="17"/>
       <c r="F14" s="18"/>
       <c r="G14" s="17"/>
@@ -1648,13 +1559,12 @@
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
-      <c r="T14" s="33"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+    </row>
+    <row r="15" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
       <c r="A15" s="13"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
       <c r="G15" s="17"/>
@@ -1670,13 +1580,12 @@
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
-      <c r="T15" s="33"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+    </row>
+    <row r="16" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
       <c r="A16" s="13"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -1692,13 +1601,12 @@
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
-      <c r="T16" s="33"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+    </row>
+    <row r="17" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
       <c r="A17" s="13"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
       <c r="G17" s="17"/>
@@ -1714,13 +1622,12 @@
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
-      <c r="T17" s="33"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+    </row>
+    <row r="18" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
       <c r="A18" s="13"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
       <c r="G18" s="17"/>
@@ -1736,126 +1643,309 @@
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
-      <c r="T18" s="33"/>
-    </row>
-    <row r="19" ht="22" customHeight="1" spans="1:19">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-    </row>
-    <row r="20" customHeight="1" spans="10:10">
-      <c r="J20" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="7:19">
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-    </row>
-    <row r="22" customHeight="1" spans="7:19">
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-    </row>
-    <row r="23" customHeight="1" spans="7:19">
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-    </row>
-    <row r="24" customHeight="1" spans="7:19">
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-    </row>
-    <row r="25" customHeight="1" spans="7:19">
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-    </row>
-    <row r="26" customHeight="1" spans="7:19">
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
+      <c r="A19" s="13"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
+      <c r="A20" s="13"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
+      <c r="A21" s="13"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
+      <c r="A22" s="13"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
+      <c r="A23" s="13"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
+      <c r="A24" s="13"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
+      <c r="A25" s="13"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
+      <c r="A26" s="13"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
+      <c r="A27" s="13"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+    </row>
+    <row r="28" ht="22" customHeight="1" spans="1:19">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+    </row>
+    <row r="29" customHeight="1" spans="7:19">
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+    </row>
+    <row r="30" customHeight="1" spans="7:19">
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+    </row>
+    <row r="31" customHeight="1" spans="7:19">
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+    </row>
+    <row r="32" customHeight="1" spans="7:19">
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+    </row>
+    <row r="33" customHeight="1" spans="7:19">
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+    </row>
+    <row r="34" customHeight="1" spans="7:19">
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:T18" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:S27" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="7">

--- a/pdf-test/src/main/resources/报价模板-final.xlsx
+++ b/pdf-test/src/main/resources/报价模板-final.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$S$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$S$28</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>常州西洲机电科技有限公司报价单</t>
   </si>
@@ -53,18 +53,46 @@
   <si>
     <t>工序</t>
   </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>激光</t>
+  </si>
+  <si>
+    <t>钻/钳</t>
+  </si>
+  <si>
+    <t>折弯</t>
+  </si>
+  <si>
+    <t>焊接</t>
+  </si>
+  <si>
+    <t>精加工</t>
+  </si>
+  <si>
+    <t>表面处理</t>
+  </si>
+  <si>
+    <t>装配运输</t>
+  </si>
+  <si>
+    <t>交货期</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -88,19 +116,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -112,15 +140,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <u/>
@@ -483,57 +511,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -552,6 +535,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -559,6 +555,21 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -688,7 +699,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,34 +711,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,10 +823,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
@@ -834,82 +845,82 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1234,723 +1245,770 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.5083333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.3" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.875" style="2" customWidth="1"/>
     <col min="6" max="9" width="8.13333333333333" style="2" customWidth="1"/>
     <col min="10" max="19" width="9" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="20" max="20" width="18.25" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:19">
+    <row r="1" customHeight="1" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:19">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:20">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:19">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:20">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:19">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:20">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A6" s="13"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A7" s="13"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A8" s="13"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A9" s="13"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A10" s="13"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A11" s="13"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A12" s="13"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A13" s="13"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A14" s="13"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A15" s="13"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A16" s="13"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A17" s="13"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A18" s="13"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A19" s="13"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A20" s="13"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A21" s="13"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A22" s="13"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A23" s="13"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A24" s="13"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A25" s="13"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A26" s="13"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="22" customHeight="1" spans="1:19">
-      <c r="A27" s="13"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-    </row>
-    <row r="28" ht="22" customHeight="1" spans="1:19">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
+      <c r="E4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="28"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A6" s="12"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="28"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A7" s="12"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="28"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A8" s="12"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="29"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A9" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="29"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A10" s="12"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="29"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A11" s="12"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="29"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A12" s="12"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="29"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A13" s="12"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="29"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A14" s="12"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="29"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A15" s="12"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="29"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A16" s="12"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="29"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A17" s="12"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="29"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A18" s="12"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="29"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A19" s="12"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="29"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A20" s="12"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="29"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A21" s="12"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="29"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A22" s="12"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="29"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A23" s="12"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="29"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A24" s="12"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="29"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A25" s="12"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="29"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A26" s="12"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="29"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="22" customHeight="1" spans="1:20">
+      <c r="A27" s="12"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="29"/>
+    </row>
+    <row r="28" ht="22" customHeight="1" spans="1:20">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="29"/>
     </row>
     <row r="29" customHeight="1" spans="7:19">
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
     </row>
     <row r="30" customHeight="1" spans="7:19">
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
     </row>
     <row r="31" customHeight="1" spans="7:19">
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
     </row>
     <row r="32" customHeight="1" spans="7:19">
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
     </row>
     <row r="33" customHeight="1" spans="7:19">
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
     </row>
     <row r="34" customHeight="1" spans="7:19">
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:S27" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:S28" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="7">
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:T2"/>
     <mergeCell ref="E3:S3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
